--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\GitHubBack\PersonalDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA934F-21D1-459E-8330-5394CBE9B910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20407634-255F-4F58-AFFD-1B0B656455D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Holiday-21" sheetId="2" r:id="rId2"/>
-    <sheet name="Stock" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="HPE-Dividend" sheetId="9" r:id="rId5"/>
-    <sheet name="ICICII" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
-    <sheet name="JNV" sheetId="10" r:id="rId9"/>
+    <sheet name="Budget" sheetId="13" r:id="rId2"/>
+    <sheet name="Interst-earn" sheetId="14" r:id="rId3"/>
+    <sheet name="Stock" sheetId="11" r:id="rId4"/>
+    <sheet name="RetirementPlan" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="HPE-Dividend" sheetId="9" r:id="rId7"/>
+    <sheet name="ICICII" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId10"/>
+    <sheet name="JNV" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="172">
   <si>
     <t>Gratuity</t>
   </si>
@@ -68,42 +70,6 @@
   </si>
   <si>
     <t>Liab</t>
-  </si>
-  <si>
-    <t>New Year’s Day</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Pongal /Makara Sankranti</t>
-  </si>
-  <si>
-    <t>Republic Day</t>
-  </si>
-  <si>
-    <t>Good Friday</t>
-  </si>
-  <si>
-    <t>Ugadi/Gudi Padwa</t>
-  </si>
-  <si>
-    <t>Id-ul-Fitr/Ramzan</t>
-  </si>
-  <si>
-    <t>Ganesh Chaturthi</t>
-  </si>
-  <si>
-    <t>Vijaya Dashami</t>
-  </si>
-  <si>
-    <t>Kannada Rajyotsava</t>
-  </si>
-  <si>
-    <t>Diwali</t>
-  </si>
-  <si>
-    <t>Guru Nanak Jayanti</t>
   </si>
   <si>
     <t>ULIP</t>
@@ -328,12 +294,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>yes Bank</t>
-  </si>
-  <si>
-    <t>Yes bank</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -356,13 +316,259 @@
   </si>
   <si>
     <t>Dividend share</t>
+  </si>
+  <si>
+    <t>2021-Dec</t>
+  </si>
+  <si>
+    <t>2022-Apr</t>
+  </si>
+  <si>
+    <t>2022-Dec</t>
+  </si>
+  <si>
+    <t>2023-Dec</t>
+  </si>
+  <si>
+    <t>2024-Dec</t>
+  </si>
+  <si>
+    <t>2 L</t>
+  </si>
+  <si>
+    <t>7 L</t>
+  </si>
+  <si>
+    <t>15 L</t>
+  </si>
+  <si>
+    <t>27 L</t>
+  </si>
+  <si>
+    <t>40L</t>
+  </si>
+  <si>
+    <t>3.5 L</t>
+  </si>
+  <si>
+    <t>4 L</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1.5 L</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>28L</t>
+  </si>
+  <si>
+    <t>29L + 2L (interest)</t>
+  </si>
+  <si>
+    <t>33 L</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>43 L</t>
+  </si>
+  <si>
+    <t>42 L</t>
+  </si>
+  <si>
+    <t>12 L (-ve)</t>
+  </si>
+  <si>
+    <t>ESPP</t>
+  </si>
+  <si>
+    <t>VPF</t>
+  </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>HL_1</t>
+  </si>
+  <si>
+    <t>HL_2</t>
+  </si>
+  <si>
+    <t>PL_1</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Elect</t>
+  </si>
+  <si>
+    <t>Mob/Inter</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Maid</t>
+  </si>
+  <si>
+    <t>Grocerry</t>
+  </si>
+  <si>
+    <t>Rest-Food</t>
+  </si>
+  <si>
+    <t>Commute</t>
+  </si>
+  <si>
+    <t>Invest_EMI</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Necessary</t>
+  </si>
+  <si>
+    <t>Earn</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Invest</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Other-Earn</t>
+  </si>
+  <si>
+    <t>Gratuity(one-time)</t>
+  </si>
+  <si>
+    <t>HP-Sahare/Yr</t>
+  </si>
+  <si>
+    <t>Bonus/Yr</t>
+  </si>
+  <si>
+    <t>Interest/Quarter</t>
+  </si>
+  <si>
+    <t>Other-Expeses</t>
+  </si>
+  <si>
+    <t>School/Yr</t>
+  </si>
+  <si>
+    <t>LTA</t>
+  </si>
+  <si>
+    <t>One Year Projection</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>NftyBees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Saving + share</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Surce</t>
+  </si>
+  <si>
+    <t>Fre</t>
+  </si>
+  <si>
+    <t>Amnt</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Saving-M</t>
+  </si>
+  <si>
+    <t>Quaterly</t>
+  </si>
+  <si>
+    <t>Saving-A</t>
+  </si>
+  <si>
+    <t>EPF-A</t>
+  </si>
+  <si>
+    <t>EPF-M</t>
+  </si>
+  <si>
+    <t>Dividend-A</t>
+  </si>
+  <si>
+    <t>Shares/Quart</t>
+  </si>
+  <si>
+    <t>39 L</t>
+  </si>
+  <si>
+    <t>37 L</t>
+  </si>
+  <si>
+    <t>35L</t>
+  </si>
+  <si>
+    <t>14 L</t>
+  </si>
+  <si>
+    <t>5.5 L</t>
+  </si>
+  <si>
+    <t>45L</t>
+  </si>
+  <si>
+    <t>6.5L</t>
+  </si>
+  <si>
+    <t>58L</t>
+  </si>
+  <si>
+    <t>36 L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,21 +576,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF494F69"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,14 +590,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -412,140 +599,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD5D5D5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD5D5D5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD5D5D5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD5D5D5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD5D5D5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD5D5D5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -554,6 +614,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,15 +931,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F222D-A2F0-44C2-99C6-BFCFB386F73F}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -886,14 +949,17 @@
       <c r="E1">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="G1" s="8">
+        <v>44896</v>
+      </c>
+      <c r="K1">
         <v>2025</v>
       </c>
-      <c r="K1">
+      <c r="N1">
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -909,20 +975,26 @@
       <c r="F2">
         <v>3.5</v>
       </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>13</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>7</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>25</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -938,20 +1010,26 @@
       <c r="F3">
         <v>27</v>
       </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
       <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="K3">
         <v>35</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>70</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -967,20 +1045,26 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>5.5</v>
+      </c>
       <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -996,20 +1080,26 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
       <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
         <v>50</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>25</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>110</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1022,17 +1112,20 @@
       <c r="E6">
         <v>3.5</v>
       </c>
-      <c r="H6">
+      <c r="G6">
+        <v>3.5</v>
+      </c>
+      <c r="K6">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1048,20 +1141,26 @@
       <c r="F7">
         <v>11</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>SUM(B2:B7)</f>
         <v>33.5</v>
@@ -1078,24 +1177,32 @@
         <f>SUM(F2:F7)</f>
         <v>44.5</v>
       </c>
+      <c r="G8">
+        <f>SUM(G2:G7)</f>
+        <v>66</v>
+      </c>
       <c r="H8">
         <f>SUM(H2:H7)</f>
-        <v>123</v>
-      </c>
-      <c r="I8">
-        <f>SUM(I2:I7)</f>
-        <v>110</v>
+        <v>57.5</v>
       </c>
       <c r="K8">
         <f>SUM(K2:K7)</f>
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="L8">
         <f>SUM(L2:L7)</f>
+        <v>110</v>
+      </c>
+      <c r="N8">
+        <f>SUM(N2:N7)</f>
+        <v>258</v>
+      </c>
+      <c r="O8">
+        <f>SUM(O2:O7)</f>
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1110,6 +1217,352 @@
       </c>
       <c r="F11">
         <v>42</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>6.75</v>
+      </c>
+      <c r="C2">
+        <v>249.97</v>
+      </c>
+      <c r="D2">
+        <v>1.04</v>
+      </c>
+      <c r="E2">
+        <v>2.56</v>
+      </c>
+      <c r="H2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>19.47</v>
+      </c>
+      <c r="C3">
+        <v>696.64</v>
+      </c>
+      <c r="D3">
+        <v>2.82</v>
+      </c>
+      <c r="E3">
+        <v>7.06</v>
+      </c>
+      <c r="H3">
+        <v>725.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>18.09</v>
+      </c>
+      <c r="C4">
+        <v>692.02</v>
+      </c>
+      <c r="D4">
+        <v>2.82</v>
+      </c>
+      <c r="E4">
+        <v>7.06</v>
+      </c>
+      <c r="H4">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2013</v>
+      </c>
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2003</v>
+      </c>
+      <c r="G1">
+        <v>2004</v>
+      </c>
+      <c r="H1">
+        <v>2005</v>
+      </c>
+      <c r="I1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1118,295 +1571,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A2472-D9A4-4F2B-9C8D-446796283D73}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA5D527-E862-4DF0-8806-FB0779C86A6C}">
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>44210</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>44222</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>44288</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>44299</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>44330</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>44449</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>44484</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>44504</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>44519</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="10">
+        <v>44764</v>
+      </c>
+      <c r="E1" s="10">
+        <v>44917</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27294</v>
+      </c>
+      <c r="C2">
+        <v>27100</v>
+      </c>
+      <c r="E2">
+        <v>30000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2">
+        <v>45000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2">
+        <v>8000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2">
+        <v>10000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="9">
+        <v>29734</v>
+      </c>
+      <c r="E3">
+        <v>33000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3">
+        <v>37000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3">
+        <v>3000</v>
+      </c>
+      <c r="P3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3">
+        <v>5000</v>
+      </c>
+      <c r="S3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11893</v>
+      </c>
+      <c r="C4">
+        <v>12000</v>
+      </c>
+      <c r="E4">
+        <v>13000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4">
+        <v>22000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4">
+        <v>3000</v>
+      </c>
+      <c r="P4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4">
+        <v>2000</v>
+      </c>
+      <c r="S4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>7136</v>
+      </c>
+      <c r="E5">
+        <v>6000</v>
+      </c>
+      <c r="K5">
+        <f>SUM(K2:K4)</f>
+        <v>104000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="T5">
+        <f>SUM(T2:T4)</f>
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>15534</v>
+      </c>
+      <c r="C6">
+        <v>16000</v>
+      </c>
+      <c r="E6">
+        <v>16000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6">
+        <v>2000</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(Q2:Q5)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>6000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <f>SUM(N2:N7)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>97591</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>58100</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>190000</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15">
+        <v>45000</v>
+      </c>
+      <c r="E15">
+        <v>40000</v>
+      </c>
+      <c r="F15">
+        <v>50000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>155000</v>
+      </c>
+      <c r="C16">
+        <v>50000</v>
+      </c>
+      <c r="D16">
+        <v>75000</v>
+      </c>
+      <c r="E16">
+        <v>50000</v>
+      </c>
+      <c r="F16">
+        <v>50000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>345000</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C15:C16)</f>
+        <v>150000</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D15:D16)</f>
+        <v>120000</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E15:E16)</f>
+        <v>90000</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F15:F16)</f>
+        <v>100000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>400000</v>
+      </c>
+      <c r="D20">
+        <v>700000</v>
+      </c>
+      <c r="E20">
+        <v>1400000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J15:J19)</f>
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>400000</v>
+      </c>
+      <c r="C23">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCABD12-3059-44FD-B3B8-E009C35DB12C}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6">
-        <v>975</v>
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7">
-        <v>800</v>
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
       </c>
       <c r="C7">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8">
-        <v>1300</v>
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
       </c>
       <c r="C8">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9">
-        <v>1500</v>
-      </c>
-      <c r="C9">
-        <v>15.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="C10">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11">
-        <v>1500</v>
-      </c>
-      <c r="C11">
-        <v>13.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f>SUM(B6:B19)</f>
-        <v>7975</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1415,6 +2092,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>186.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>375</v>
+      </c>
+      <c r="H4">
+        <v>185.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>183.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>350</v>
+      </c>
+      <c r="H6">
+        <v>182.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>400</v>
+      </c>
+      <c r="H7">
+        <v>178.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>171.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>170.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f>SUM(G3:G13)</f>
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>SUM(B6:B19)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50D8B70-34DA-479D-99A1-745595DA7655}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21665A-23F8-44A6-BBBB-89F49F8AA360}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -1425,61 +2362,61 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
         <v>20000</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="2">
         <v>39120</v>
       </c>
       <c r="E2">
@@ -1491,7 +2428,7 @@
       <c r="G2">
         <v>800</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="4">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="K2">
@@ -1503,15 +2440,15 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C3">
         <v>20000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="2">
         <v>39407</v>
       </c>
       <c r="E3">
@@ -1523,11 +2460,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>36</v>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1535,15 +2472,15 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C4">
         <v>25000</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="2">
         <v>39829</v>
       </c>
       <c r="E4">
@@ -1555,11 +2492,11 @@
       <c r="H4">
         <v>760</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>39</v>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -1567,36 +2504,36 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="4">
         <v>1.35E-2</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>45</v>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="15">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.05</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="4">
         <v>1.35E-2</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>36</v>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1605,45 +2542,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE8F9A-D870-4289-9775-9C157F06B43E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1913,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D360A2-36FA-41FE-B861-16B8902DB39F}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -1928,28 +2866,28 @@
         <v>6736</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H1">
         <v>4441535</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2180,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004B924-DDAE-4B12-A905-ADFA4DBF16C6}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2200,13 +3138,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F1">
         <v>44</v>
@@ -2217,12 +3155,12 @@
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="14">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="D2">
@@ -2232,20 +3170,20 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>30000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="6">
         <v>200000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="6">
         <v>200000</v>
       </c>
       <c r="F3">
@@ -2257,21 +3195,21 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>300000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="6">
         <v>2000000</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="6">
         <v>2000000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>37500</v>
@@ -2279,69 +3217,69 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2352,7 +3290,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -2366,53 +3304,53 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="15">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5">
         <v>0.05</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="5">
         <v>0.03</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="5">
         <v>0.04</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="14">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4">
         <v>1.35E-2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="4">
         <v>1.35E-2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="4">
         <v>1.35E-2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="4">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>77</v>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>1200</v>
@@ -2429,27 +3367,27 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="6">
         <v>2000</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>75</v>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>73</v>
+      <c r="A17" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C17">
         <v>5500</v>
@@ -2457,8 +3395,8 @@
       <c r="D17">
         <v>6000</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>74</v>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="F17">
         <v>8750</v>
@@ -2472,342 +3410,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>6.75</v>
-      </c>
-      <c r="C2">
-        <v>249.97</v>
-      </c>
-      <c r="D2">
-        <v>1.04</v>
-      </c>
-      <c r="E2">
-        <v>2.56</v>
-      </c>
-      <c r="H2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>19.47</v>
-      </c>
-      <c r="C3">
-        <v>696.64</v>
-      </c>
-      <c r="D3">
-        <v>2.82</v>
-      </c>
-      <c r="E3">
-        <v>7.06</v>
-      </c>
-      <c r="H3">
-        <v>725.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>18.09</v>
-      </c>
-      <c r="C4">
-        <v>692.02</v>
-      </c>
-      <c r="D4">
-        <v>2.82</v>
-      </c>
-      <c r="E4">
-        <v>7.06</v>
-      </c>
-      <c r="H4">
-        <v>720</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2013</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2003</v>
-      </c>
-      <c r="G1">
-        <v>2004</v>
-      </c>
-      <c r="H1">
-        <v>2005</v>
-      </c>
-      <c r="I1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="H7">
-        <v>52</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="I10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ee9ddd37-01c2-47a1-893c-5c0bdc1f6d39}" enabled="1" method="Privileged" siteId="{d9662eb9-ad98-4e74-a8a2-04ed5d544db6}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20407634-255F-4F58-AFFD-1B0B656455D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{36DA934F-21D1-459E-8330-5394CBE9B910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B574EB7C-CBF0-446A-9FB6-CEDB41B46D8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Budget" sheetId="13" r:id="rId2"/>
-    <sheet name="Interst-earn" sheetId="14" r:id="rId3"/>
-    <sheet name="Stock" sheetId="11" r:id="rId4"/>
-    <sheet name="RetirementPlan" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="HPE-Dividend" sheetId="9" r:id="rId7"/>
-    <sheet name="ICICII" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId10"/>
-    <sheet name="JNV" sheetId="10" r:id="rId11"/>
+    <sheet name="Holiday-21" sheetId="2" r:id="rId2"/>
+    <sheet name="Stock" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="HPE-Dividend" sheetId="9" r:id="rId5"/>
+    <sheet name="ICICII" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
+    <sheet name="JNV" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Gratuity</t>
   </si>
@@ -70,6 +68,42 @@
   </si>
   <si>
     <t>Liab</t>
+  </si>
+  <si>
+    <t>New Year’s Day</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Pongal /Makara Sankranti</t>
+  </si>
+  <si>
+    <t>Republic Day</t>
+  </si>
+  <si>
+    <t>Good Friday</t>
+  </si>
+  <si>
+    <t>Ugadi/Gudi Padwa</t>
+  </si>
+  <si>
+    <t>Id-ul-Fitr/Ramzan</t>
+  </si>
+  <si>
+    <t>Ganesh Chaturthi</t>
+  </si>
+  <si>
+    <t>Vijaya Dashami</t>
+  </si>
+  <si>
+    <t>Kannada Rajyotsava</t>
+  </si>
+  <si>
+    <t>Diwali</t>
+  </si>
+  <si>
+    <t>Guru Nanak Jayanti</t>
   </si>
   <si>
     <t>ULIP</t>
@@ -294,6 +328,12 @@
     <t>date</t>
   </si>
   <si>
+    <t>yes Bank</t>
+  </si>
+  <si>
+    <t>Yes bank</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -318,257 +358,14 @@
     <t>Dividend share</t>
   </si>
   <si>
-    <t>2021-Dec</t>
-  </si>
-  <si>
-    <t>2022-Apr</t>
-  </si>
-  <si>
-    <t>2022-Dec</t>
-  </si>
-  <si>
-    <t>2023-Dec</t>
-  </si>
-  <si>
-    <t>2024-Dec</t>
-  </si>
-  <si>
-    <t>2 L</t>
-  </si>
-  <si>
-    <t>7 L</t>
-  </si>
-  <si>
-    <t>15 L</t>
-  </si>
-  <si>
-    <t>27 L</t>
-  </si>
-  <si>
-    <t>40L</t>
-  </si>
-  <si>
-    <t>3.5 L</t>
-  </si>
-  <si>
-    <t>4 L</t>
-  </si>
-  <si>
-    <t>Leaves</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>1.5 L</t>
-  </si>
-  <si>
-    <t>2L</t>
-  </si>
-  <si>
-    <t>28L</t>
-  </si>
-  <si>
-    <t>29L + 2L (interest)</t>
-  </si>
-  <si>
-    <t>33 L</t>
-  </si>
-  <si>
-    <t>Liability</t>
-  </si>
-  <si>
-    <t>43 L</t>
-  </si>
-  <si>
-    <t>42 L</t>
-  </si>
-  <si>
-    <t>12 L (-ve)</t>
-  </si>
-  <si>
-    <t>ESPP</t>
-  </si>
-  <si>
-    <t>VPF</t>
-  </si>
-  <si>
-    <t>IMC</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>HL_1</t>
-  </si>
-  <si>
-    <t>HL_2</t>
-  </si>
-  <si>
-    <t>PL_1</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Elect</t>
-  </si>
-  <si>
-    <t>Mob/Inter</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Maid</t>
-  </si>
-  <si>
-    <t>Grocerry</t>
-  </si>
-  <si>
-    <t>Rest-Food</t>
-  </si>
-  <si>
-    <t>Commute</t>
-  </si>
-  <si>
-    <t>Invest_EMI</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Necessary</t>
-  </si>
-  <si>
-    <t>Earn</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Invest</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Other-Earn</t>
-  </si>
-  <si>
-    <t>Gratuity(one-time)</t>
-  </si>
-  <si>
-    <t>HP-Sahare/Yr</t>
-  </si>
-  <si>
-    <t>Bonus/Yr</t>
-  </si>
-  <si>
-    <t>Interest/Quarter</t>
-  </si>
-  <si>
-    <t>Other-Expeses</t>
-  </si>
-  <si>
-    <t>School/Yr</t>
-  </si>
-  <si>
-    <t>LTA</t>
-  </si>
-  <si>
-    <t>One Year Projection</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>NftyBees</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Saving + share</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>Surce</t>
-  </si>
-  <si>
-    <t>Fre</t>
-  </si>
-  <si>
-    <t>Amnt</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Saving-M</t>
-  </si>
-  <si>
-    <t>Quaterly</t>
-  </si>
-  <si>
-    <t>Saving-A</t>
-  </si>
-  <si>
-    <t>EPF-A</t>
-  </si>
-  <si>
-    <t>EPF-M</t>
-  </si>
-  <si>
-    <t>Dividend-A</t>
-  </si>
-  <si>
-    <t>Shares/Quart</t>
-  </si>
-  <si>
-    <t>39 L</t>
-  </si>
-  <si>
-    <t>37 L</t>
-  </si>
-  <si>
-    <t>35L</t>
-  </si>
-  <si>
-    <t>14 L</t>
-  </si>
-  <si>
-    <t>5.5 L</t>
-  </si>
-  <si>
-    <t>45L</t>
-  </si>
-  <si>
-    <t>6.5L</t>
-  </si>
-  <si>
-    <t>58L</t>
-  </si>
-  <si>
-    <t>36 L</t>
+    <t>Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +373,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494F69"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +400,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -599,13 +415,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -615,8 +558,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F222D-A2F0-44C2-99C6-BFCFB386F73F}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +890,7 @@
       <c r="E1">
         <v>2021</v>
       </c>
-      <c r="G1" s="8">
+      <c r="H1" s="18">
         <v>44896</v>
       </c>
       <c r="K1">
@@ -975,11 +916,11 @@
       <c r="F2">
         <v>3.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>4</v>
+      <c r="I2">
+        <v>4.7</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -1010,10 +951,10 @@
       <c r="F3">
         <v>27</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30</v>
       </c>
       <c r="K3">
@@ -1043,13 +984,13 @@
         <v>3</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5.5</v>
-      </c>
-      <c r="H4">
-        <v>1.5</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1080,10 +1021,10 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>20</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="K5" s="1">
@@ -1112,8 +1053,11 @@
       <c r="E6">
         <v>3.5</v>
       </c>
-      <c r="G6">
-        <v>3.5</v>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="K6">
         <v>15</v>
@@ -1141,11 +1085,11 @@
       <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>12</v>
+      <c r="I7">
+        <v>13</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1175,15 +1119,15 @@
       </c>
       <c r="F8">
         <f>SUM(F2:F7)</f>
-        <v>44.5</v>
-      </c>
-      <c r="G8">
-        <f>SUM(G2:G7)</f>
-        <v>66</v>
+        <v>43.5</v>
       </c>
       <c r="H8">
         <f>SUM(H2:H7)</f>
-        <v>57.5</v>
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <f>SUM(I2:I7)</f>
+        <v>58.7</v>
       </c>
       <c r="K8">
         <f>SUM(K2:K7)</f>
@@ -1218,351 +1162,34 @@
       <c r="F11">
         <v>42</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>47</v>
+      </c>
+      <c r="I13">
         <v>20</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>6.75</v>
-      </c>
-      <c r="C2">
-        <v>249.97</v>
-      </c>
-      <c r="D2">
-        <v>1.04</v>
-      </c>
-      <c r="E2">
-        <v>2.56</v>
-      </c>
-      <c r="H2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>19.47</v>
-      </c>
-      <c r="C3">
-        <v>696.64</v>
-      </c>
-      <c r="D3">
-        <v>2.82</v>
-      </c>
-      <c r="E3">
-        <v>7.06</v>
-      </c>
-      <c r="H3">
-        <v>725.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>18.09</v>
-      </c>
-      <c r="C4">
-        <v>692.02</v>
-      </c>
-      <c r="D4">
-        <v>2.82</v>
-      </c>
-      <c r="E4">
-        <v>7.06</v>
-      </c>
-      <c r="H4">
-        <v>720</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2013</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2003</v>
-      </c>
-      <c r="G1">
-        <v>2004</v>
-      </c>
-      <c r="H1">
-        <v>2005</v>
-      </c>
-      <c r="I1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="H7">
-        <v>52</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="I10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1571,519 +1198,295 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA5D527-E862-4DF0-8806-FB0779C86A6C}">
-  <dimension ref="A1:T23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A2472-D9A4-4F2B-9C8D-446796283D73}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="10">
-        <v>44764</v>
-      </c>
-      <c r="E1" s="10">
-        <v>44917</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>27294</v>
-      </c>
-      <c r="C2">
-        <v>27100</v>
-      </c>
-      <c r="E2">
-        <v>30000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2">
-        <v>45000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2">
-        <v>8000</v>
-      </c>
-      <c r="P2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2">
-        <v>10000</v>
-      </c>
-      <c r="S2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2">
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="9">
-        <v>29734</v>
-      </c>
-      <c r="E3">
-        <v>33000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3">
-        <v>37000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3">
-        <v>3000</v>
-      </c>
-      <c r="P3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3">
-        <v>5000</v>
-      </c>
-      <c r="S3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11893</v>
-      </c>
-      <c r="C4">
-        <v>12000</v>
-      </c>
-      <c r="E4">
-        <v>13000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4">
-        <v>22000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4">
-        <v>3000</v>
-      </c>
-      <c r="P4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4">
-        <v>2000</v>
-      </c>
-      <c r="S4" t="s">
-        <v>132</v>
-      </c>
-      <c r="T4">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>7136</v>
-      </c>
-      <c r="E5">
-        <v>6000</v>
-      </c>
-      <c r="K5">
-        <f>SUM(K2:K4)</f>
-        <v>104000</v>
-      </c>
-      <c r="M5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5">
-        <v>2000</v>
-      </c>
-      <c r="T5">
-        <f>SUM(T2:T4)</f>
-        <v>151000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6">
-        <v>15534</v>
-      </c>
-      <c r="C6">
-        <v>16000</v>
-      </c>
-      <c r="E6">
-        <v>16000</v>
-      </c>
-      <c r="M6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6">
-        <v>2000</v>
-      </c>
-      <c r="Q6">
-        <f>SUM(Q2:Q5)</f>
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7">
-        <v>6000</v>
-      </c>
-      <c r="C7">
-        <v>3000</v>
-      </c>
-      <c r="E7">
-        <v>6000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N8">
-        <f>SUM(N2:N7)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B2:B8)</f>
-        <v>97591</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C2:C8)</f>
-        <v>58100</v>
-      </c>
-      <c r="E9">
-        <f>SUM(E2:E8)</f>
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15">
-        <v>190000</v>
-      </c>
-      <c r="C15">
-        <v>100000</v>
-      </c>
-      <c r="D15">
-        <v>45000</v>
-      </c>
-      <c r="E15">
-        <v>40000</v>
-      </c>
-      <c r="F15">
-        <v>50000</v>
-      </c>
-      <c r="I15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16">
-        <v>155000</v>
-      </c>
-      <c r="C16">
-        <v>50000</v>
-      </c>
-      <c r="D16">
-        <v>75000</v>
-      </c>
-      <c r="E16">
-        <v>50000</v>
-      </c>
-      <c r="F16">
-        <v>50000</v>
-      </c>
-      <c r="I16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>SUM(B15:B16)</f>
-        <v>345000</v>
-      </c>
-      <c r="C17">
-        <f>SUM(C15:C16)</f>
-        <v>150000</v>
-      </c>
-      <c r="D17">
-        <f>SUM(D15:D16)</f>
-        <v>120000</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E15:E16)</f>
-        <v>90000</v>
-      </c>
-      <c r="F17">
-        <f>SUM(F15:F16)</f>
-        <v>100000</v>
-      </c>
-      <c r="I17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20">
-        <v>400000</v>
-      </c>
-      <c r="D20">
-        <v>700000</v>
-      </c>
-      <c r="E20">
-        <v>1400000</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20">
-        <f>SUM(J15:J19)</f>
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>400000</v>
-      </c>
-      <c r="C23">
-        <v>100000</v>
-      </c>
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>44210</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>44222</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>44299</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>44330</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>44449</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>44484</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>44504</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>44519</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCABD12-3059-44FD-B3B8-E009C35DB12C}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>975</v>
+      </c>
+      <c r="C6">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>800</v>
+      </c>
+      <c r="C7">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>1300</v>
+      </c>
+      <c r="C8">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7">
+      <c r="C9">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>1500</v>
+      </c>
+      <c r="C11">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
+      <c r="C12">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>SUM(B6:B19)</f>
+        <v>7975</v>
       </c>
     </row>
   </sheetData>
@@ -2092,266 +1495,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3">
-        <v>300</v>
-      </c>
-      <c r="H3">
-        <v>186.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4">
-        <v>375</v>
-      </c>
-      <c r="H4">
-        <v>185.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5">
-        <v>183.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6">
-        <v>350</v>
-      </c>
-      <c r="H6">
-        <v>182.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G7">
-        <v>400</v>
-      </c>
-      <c r="H7">
-        <v>178.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8">
-        <v>400</v>
-      </c>
-      <c r="H8">
-        <v>171.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>170.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <f>SUM(G3:G13)</f>
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f>SUM(B6:B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50D8B70-34DA-479D-99A1-745595DA7655}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21665A-23F8-44A6-BBBB-89F49F8AA360}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -2362,61 +1505,61 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="13" customWidth="1"/>
     <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C2">
         <v>20000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="12">
         <v>39120</v>
       </c>
       <c r="E2">
@@ -2428,7 +1571,7 @@
       <c r="G2">
         <v>800</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="14">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="K2">
@@ -2440,15 +1583,15 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>20000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="12">
         <v>39407</v>
       </c>
       <c r="E3">
@@ -2460,11 +1603,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
+      <c r="J3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -2472,15 +1615,15 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C4">
         <v>25000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="12">
         <v>39829</v>
       </c>
       <c r="E4">
@@ -2492,11 +1635,11 @@
       <c r="H4">
         <v>760</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
+      <c r="J4" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2504,36 +1647,36 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
+      <c r="J6" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="5">
+        <v>46</v>
+      </c>
+      <c r="G7" s="15">
         <v>0.05</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>24</v>
+      <c r="J7" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2542,46 +1685,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE8F9A-D870-4289-9775-9C157F06B43E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2851,7 +1993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D360A2-36FA-41FE-B861-16B8902DB39F}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -2866,28 +2008,28 @@
         <v>6736</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H1">
         <v>4441535</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3118,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004B924-DDAE-4B12-A905-ADFA4DBF16C6}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -3138,13 +2280,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F1">
         <v>44</v>
@@ -3155,12 +2297,12 @@
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="4">
+        <v>49</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="D2">
@@ -3170,20 +2312,20 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>30000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="16">
         <v>200000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <v>200000</v>
       </c>
       <c r="F3">
@@ -3195,21 +2337,21 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>300000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="16">
         <v>2000000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="16">
         <v>2000000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>37500</v>
@@ -3217,69 +2359,69 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -3290,7 +2432,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -3304,53 +2446,53 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="5">
+        <v>61</v>
+      </c>
+      <c r="D12" s="15">
         <v>0.05</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="15">
         <v>0.03</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="15">
         <v>0.04</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4">
+        <v>72</v>
+      </c>
+      <c r="C13" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="14">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>65</v>
+      <c r="G13" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1200</v>
@@ -3367,27 +2509,27 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="16">
         <v>2000</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>63</v>
+      <c r="F15" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>61</v>
+      <c r="A17" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C17">
         <v>5500</v>
@@ -3395,14 +2537,354 @@
       <c r="D17">
         <v>6000</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
+      <c r="E17" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="F17">
         <v>8750</v>
       </c>
       <c r="G17">
         <v>9500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>6.75</v>
+      </c>
+      <c r="C2">
+        <v>249.97</v>
+      </c>
+      <c r="D2">
+        <v>1.04</v>
+      </c>
+      <c r="E2">
+        <v>2.56</v>
+      </c>
+      <c r="H2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>19.47</v>
+      </c>
+      <c r="C3">
+        <v>696.64</v>
+      </c>
+      <c r="D3">
+        <v>2.82</v>
+      </c>
+      <c r="E3">
+        <v>7.06</v>
+      </c>
+      <c r="H3">
+        <v>725.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>18.09</v>
+      </c>
+      <c r="C4">
+        <v>692.02</v>
+      </c>
+      <c r="D4">
+        <v>2.82</v>
+      </c>
+      <c r="E4">
+        <v>7.06</v>
+      </c>
+      <c r="H4">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2013</v>
+      </c>
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2003</v>
+      </c>
+      <c r="G1">
+        <v>2004</v>
+      </c>
+      <c r="H1">
+        <v>2005</v>
+      </c>
+      <c r="I1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3412,6 +2894,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{ee9ddd37-01c2-47a1-893c-5c0bdc1f6d39}" enabled="1" method="Privileged" siteId="{d9662eb9-ad98-4e74-a8a2-04ed5d544db6}" contentBits="0" removed="0"/>
+  <clbl:label id="{ee9ddd37-01c2-47a1-893c-5c0bdc1f6d39}" enabled="1" method="Privileged" siteId="{d9662eb9-ad98-4e74-a8a2-04ed5d544db6}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{36DA934F-21D1-459E-8330-5394CBE9B910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B574EB7C-CBF0-446A-9FB6-CEDB41B46D8D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="6_{AEE65254-2363-46B3-A8B8-5407D2A98BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2C08BA-E4F0-46B6-A32B-C3157BB476EE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Holiday-21" sheetId="2" r:id="rId2"/>
-    <sheet name="Stock" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="HPE-Dividend" sheetId="9" r:id="rId5"/>
-    <sheet name="ICICII" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
-    <sheet name="JNV" sheetId="10" r:id="rId9"/>
+    <sheet name="Ind-Vested" sheetId="12" r:id="rId2"/>
+    <sheet name="Holiday-21" sheetId="2" r:id="rId3"/>
+    <sheet name="Stock" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="HPE-Dividend" sheetId="9" r:id="rId6"/>
+    <sheet name="ICICII" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId9"/>
+    <sheet name="JNV" sheetId="10" r:id="rId10"/>
+    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId11"/>
+    <sheet name="IncomeProject-24" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>Gratuity</t>
   </si>
@@ -359,6 +362,132 @@
   </si>
   <si>
     <t>Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th HSM Memorial </t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Fide Rating</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>600-750</t>
+  </si>
+  <si>
+    <t>Virginia Mall, Whitefield</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Prize</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>120Feb</t>
+  </si>
+  <si>
+    <t>Promethean Open FIDE Rating</t>
+  </si>
+  <si>
+    <t>Unrated-15K</t>
+  </si>
+  <si>
+    <t>4th ICA Open FIDE Rating</t>
+  </si>
+  <si>
+    <t>under-1100</t>
+  </si>
+  <si>
+    <t>9th ICA Below 1600 FIDE Rating</t>
+  </si>
+  <si>
+    <t>Unraed</t>
+  </si>
+  <si>
+    <t>U-1600</t>
+  </si>
+  <si>
+    <t>13-15 Apr</t>
+  </si>
+  <si>
+    <t>5th Bangalore Open FIDE Rating</t>
+  </si>
+  <si>
+    <t>8-12 Apr</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>Ind-Man</t>
+  </si>
+  <si>
+    <t>Ind-Mana</t>
+  </si>
+  <si>
+    <t>Vested-Man</t>
+  </si>
+  <si>
+    <t>Vested-Mana</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Dolr</t>
+  </si>
+  <si>
+    <t>Shr</t>
+  </si>
+  <si>
+    <t>Dlr</t>
+  </si>
+  <si>
+    <t>dollVsInr</t>
   </si>
 </sst>
 </file>
@@ -518,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,6 +687,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,324 +1002,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F222D-A2F0-44C2-99C6-BFCFB386F73F}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="18">
+        <v>44896</v>
+      </c>
+      <c r="K1" s="19">
+        <v>44918</v>
+      </c>
+      <c r="N1">
+        <v>2025</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+      <c r="H2">
+        <v>11.5</v>
+      </c>
+      <c r="I2">
+        <v>4.7</v>
+      </c>
+      <c r="K2">
+        <v>13.5</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>39</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>70</v>
+      </c>
+      <c r="R3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1.3</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>110</v>
+      </c>
+      <c r="R5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>33.5</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>35.5</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>44.5</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>43.5</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H2:H7)</f>
+        <v>50.5</v>
+      </c>
+      <c r="I8">
+        <f>SUM(I2:I7)</f>
+        <v>57</v>
+      </c>
+      <c r="K8">
+        <f>SUM(K2:K7)</f>
+        <v>82.5</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L2:L7)</f>
+        <v>83.5</v>
+      </c>
+      <c r="N8">
+        <f>SUM(N2:N7)</f>
+        <v>138</v>
+      </c>
+      <c r="O8">
+        <f>SUM(O2:O7)</f>
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(Q2:Q7)</f>
+        <v>258</v>
+      </c>
+      <c r="R8">
+        <f>SUM(R2:R7)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>65</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2013</v>
+      </c>
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2003</v>
+      </c>
+      <c r="G1">
+        <v>2004</v>
+      </c>
+      <c r="H1">
+        <v>2005</v>
+      </c>
+      <c r="I1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA858BC-6FC1-4FE0-B743-F4C343DF67D5}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44569</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>2500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44658</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>2500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5">
+        <v>3500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>3500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1">
+        <v>1.2</v>
+      </c>
+      <c r="E1">
+        <v>1.5</v>
+      </c>
+      <c r="F1">
+        <v>1.8</v>
+      </c>
+      <c r="H1">
+        <v>4.5</v>
+      </c>
+      <c r="I1">
+        <v>1.5</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>1.4</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="H2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>1.4</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
+      </c>
+      <c r="H3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>1.8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>1.8</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>1.8</v>
+      </c>
+      <c r="H5">
+        <v>3.3</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>1.8</v>
+      </c>
+      <c r="H6">
+        <v>3.3</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7">
+        <v>1.8</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>1.8</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="H1" s="18">
-        <v>44896</v>
-      </c>
-      <c r="K1">
-        <v>2025</v>
-      </c>
-      <c r="N1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.7</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="K7">
         <v>3.5</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>4.7</v>
-      </c>
-      <c r="K2">
-        <v>13</v>
-      </c>
-      <c r="L2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>3.3</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="H9">
+        <v>3.3</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="N2">
-        <v>25</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="K3">
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>3.3</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f>SUM(K1:K13)</f>
         <v>35</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>70</v>
-      </c>
-      <c r="O3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
-      <c r="L5" s="1">
-        <v>25</v>
-      </c>
-      <c r="N5" s="1">
-        <v>110</v>
-      </c>
-      <c r="O5" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>33.5</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>35.5</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E2:E7)</f>
-        <v>44.5</v>
-      </c>
-      <c r="F8">
-        <f>SUM(F2:F7)</f>
-        <v>43.5</v>
-      </c>
-      <c r="H8">
-        <f>SUM(H2:H7)</f>
-        <v>66</v>
-      </c>
-      <c r="I8">
-        <f>SUM(I2:I7)</f>
-        <v>58.7</v>
-      </c>
-      <c r="K8">
-        <f>SUM(K2:K7)</f>
-        <v>123</v>
-      </c>
-      <c r="L8">
-        <f>SUM(L2:L7)</f>
-        <v>110</v>
-      </c>
-      <c r="N8">
-        <f>SUM(N2:N7)</f>
-        <v>258</v>
-      </c>
-      <c r="O8">
-        <f>SUM(O2:O7)</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>42</v>
-      </c>
-      <c r="H11">
-        <v>19</v>
-      </c>
-      <c r="I11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>-10</v>
-      </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>47</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1198,6 +2071,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8AD0-E588-4715-BD9A-D31EABC4DD8E}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3">
+        <v>340</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1007</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>44896</v>
+      </c>
+      <c r="B4">
+        <v>369</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1143</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A2472-D9A4-4F2B-9C8D-446796283D73}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1362,7 +2341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -1494,7 +2473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21665A-23F8-44A6-BBBB-89F49F8AA360}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -1685,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE8F9A-D870-4289-9775-9C157F06B43E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -1993,7 +2972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D360A2-36FA-41FE-B861-16B8902DB39F}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -2260,7 +3239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004B924-DDAE-4B12-A905-ADFA4DBF16C6}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2552,7 +3531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -2650,248 +3629,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2013</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2003</v>
-      </c>
-      <c r="G1">
-        <v>2004</v>
-      </c>
-      <c r="H1">
-        <v>2005</v>
-      </c>
-      <c r="I1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="H7">
-        <v>52</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="I10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ee9ddd37-01c2-47a1-893c-5c0bdc1f6d39}" enabled="1" method="Privileged" siteId="{d9662eb9-ad98-4e74-a8a2-04ed5d544db6}" removed="0"/>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6_{AEE65254-2363-46B3-A8B8-5407D2A98BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2C08BA-E4F0-46B6-A32B-C3157BB476EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FDA49C-46FC-4C96-B5DC-CFF927824E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
@@ -43,6 +43,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kumar, Manish</author>
+  </authors>
+  <commentList>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{B1F1341F-F7EC-4E89-B68A-D087868BC30E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kumar, Manish:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
@@ -494,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +548,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -994,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2071,51 +2118,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8AD0-E588-4715-BD9A-D31EABC4DD8E}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8AD0-E588-4715-BD9A-D31EABC4DD8E}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
       <c r="E2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" t="s">
         <v>145</v>
       </c>
       <c r="G2" t="s">
@@ -2124,11 +2165,17 @@
       <c r="H2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2136,43 +2183,57 @@
         <v>340</v>
       </c>
       <c r="C3">
+        <v>25000</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="F3">
-        <v>1007</v>
+        <v>140000</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="H3">
+        <v>1007</v>
+      </c>
+      <c r="I3">
+        <v>75000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>44896</v>
       </c>
       <c r="B4">
         <v>369</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1143</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>81</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FDA49C-46FC-4C96-B5DC-CFF927824E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC685D03-9969-4AB1-875A-D3D169716DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="2" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Ind-Vested" sheetId="12" r:id="rId2"/>
-    <sheet name="Holiday-21" sheetId="2" r:id="rId3"/>
-    <sheet name="Stock" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
-    <sheet name="HPE-Dividend" sheetId="9" r:id="rId6"/>
-    <sheet name="ICICII" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId9"/>
-    <sheet name="JNV" sheetId="10" r:id="rId10"/>
-    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId11"/>
-    <sheet name="IncomeProject-24" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="17" r:id="rId3"/>
+    <sheet name="Holiday-21" sheetId="2" r:id="rId4"/>
+    <sheet name="Stock" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="HPE-Dividend" sheetId="9" r:id="rId7"/>
+    <sheet name="ICICII" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId10"/>
+    <sheet name="JNV" sheetId="10" r:id="rId11"/>
+    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId12"/>
+    <sheet name="IncomeProject-24" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId14"/>
+    <sheet name="Budget" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="196">
   <si>
     <t>Gratuity</t>
   </si>
@@ -522,6 +525,153 @@
   </si>
   <si>
     <t>dollVsInr</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Income(in K)</t>
+  </si>
+  <si>
+    <t>SAG-Shares</t>
+  </si>
+  <si>
+    <t>HP-Shares</t>
+  </si>
+  <si>
+    <t>HP-Div (Cash)</t>
+  </si>
+  <si>
+    <t>HP-Div (Shares)</t>
+  </si>
+  <si>
+    <t>Saving-interest</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Vested</t>
+  </si>
+  <si>
+    <t>Job-M</t>
+  </si>
+  <si>
+    <t>Job-Ma</t>
+  </si>
+  <si>
+    <t>Grat</t>
+  </si>
+  <si>
+    <t>Maid</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Electr</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Outing</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Net-income</t>
+  </si>
+  <si>
+    <t>Sal-man(After Loan)</t>
+  </si>
+  <si>
+    <t>Sal-mani(After Loan)</t>
+  </si>
+  <si>
+    <t>Total-income</t>
+  </si>
+  <si>
+    <t>HomeLn-1</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Trad-Invest</t>
+  </si>
+  <si>
+    <t>Sahres</t>
+  </si>
+  <si>
+    <t>Other-invest</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Icici_1</t>
+  </si>
+  <si>
+    <t>Icici_2</t>
+  </si>
+  <si>
+    <t>NPS_1</t>
+  </si>
+  <si>
+    <t>NPS_2</t>
+  </si>
+  <si>
+    <t>HPE_Vested</t>
+  </si>
+  <si>
+    <t>HPE_ESPP</t>
+  </si>
+  <si>
+    <t>SAG_ESPP</t>
+  </si>
+  <si>
+    <t>HPE-Bon</t>
+  </si>
+  <si>
+    <t>Grat1</t>
+  </si>
+  <si>
+    <t>Grat2</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>Leave1</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1442,11 +1592,109 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>6.75</v>
+      </c>
+      <c r="C2">
+        <v>249.97</v>
+      </c>
+      <c r="D2">
+        <v>1.04</v>
+      </c>
+      <c r="E2">
+        <v>2.56</v>
+      </c>
+      <c r="H2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>19.47</v>
+      </c>
+      <c r="C3">
+        <v>696.64</v>
+      </c>
+      <c r="D3">
+        <v>2.82</v>
+      </c>
+      <c r="E3">
+        <v>7.06</v>
+      </c>
+      <c r="H3">
+        <v>725.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>18.09</v>
+      </c>
+      <c r="C4">
+        <v>692.02</v>
+      </c>
+      <c r="D4">
+        <v>2.82</v>
+      </c>
+      <c r="E4">
+        <v>7.06</v>
+      </c>
+      <c r="H4">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,12 +1931,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA858BC-6FC1-4FE0-B743-F4C343DF67D5}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,12 +2071,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F1" sqref="F1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2110,6 +2358,403 @@
       <c r="K14">
         <f>SUM(K1:K13)</f>
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9794E9-9C2C-4093-9E58-3B0BB5523EE8}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>230</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3">
+        <v>160</v>
+      </c>
+      <c r="O3">
+        <v>280</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4">
+        <v>85</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R5">
+        <v>55</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6">
+        <v>95</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7">
+        <v>80</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B1:B18)</f>
+        <v>46.5</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H2:H18)</f>
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L2:L18)</f>
+        <v>278</v>
+      </c>
+      <c r="O19">
+        <f>SUM(O2:O18)</f>
+        <v>525</v>
+      </c>
+      <c r="S19" s="15">
+        <f>SUM(S4:S18)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2121,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8AD0-E588-4715-BD9A-D31EABC4DD8E}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,6 +2875,20 @@
         <v>81</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>45008</v>
+      </c>
+      <c r="B5">
+        <v>385</v>
+      </c>
+      <c r="E5">
+        <v>2108</v>
+      </c>
+      <c r="H5">
+        <v>1170</v>
+      </c>
+    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,6 +2897,151 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87EEF09-CE4A-466C-B8B6-8F60BE2038F1}">
+  <dimension ref="A2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>27.5</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C2:C19)</f>
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D1:D19)</f>
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E1:E19)</f>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A2472-D9A4-4F2B-9C8D-446796283D73}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2402,7 +3206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2534,7 +3338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21665A-23F8-44A6-BBBB-89F49F8AA360}">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -2725,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE8F9A-D870-4289-9775-9C157F06B43E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -2737,6 +3541,7 @@
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3033,7 +3838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D360A2-36FA-41FE-B861-16B8902DB39F}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -3300,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004B924-DDAE-4B12-A905-ADFA4DBF16C6}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -3592,104 +4397,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>6.75</v>
-      </c>
-      <c r="C2">
-        <v>249.97</v>
-      </c>
-      <c r="D2">
-        <v>1.04</v>
-      </c>
-      <c r="E2">
-        <v>2.56</v>
-      </c>
-      <c r="H2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>19.47</v>
-      </c>
-      <c r="C3">
-        <v>696.64</v>
-      </c>
-      <c r="D3">
-        <v>2.82</v>
-      </c>
-      <c r="E3">
-        <v>7.06</v>
-      </c>
-      <c r="H3">
-        <v>725.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>18.09</v>
-      </c>
-      <c r="C4">
-        <v>692.02</v>
-      </c>
-      <c r="D4">
-        <v>2.82</v>
-      </c>
-      <c r="E4">
-        <v>7.06</v>
-      </c>
-      <c r="H4">
-        <v>720</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ee9ddd37-01c2-47a1-893c-5c0bdc1f6d39}" enabled="1" method="Privileged" siteId="{d9662eb9-ad98-4e74-a8a2-04ed5d544db6}" removed="0"/>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC685D03-9969-4AB1-875A-D3D169716DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{46BFD54B-2E85-4D04-BAE6-7F00043CD279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B9CB59-D46A-4C4F-81A6-4F7EA60CFEFD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="2" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,14 @@
     <sheet name="Sheet4" sheetId="17" r:id="rId3"/>
     <sheet name="Holiday-21" sheetId="2" r:id="rId4"/>
     <sheet name="Stock" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="HPE-Dividend" sheetId="9" r:id="rId7"/>
-    <sheet name="ICICII" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId10"/>
-    <sheet name="JNV" sheetId="10" r:id="rId11"/>
-    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId12"/>
-    <sheet name="IncomeProject-24" sheetId="14" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId14"/>
-    <sheet name="Budget" sheetId="16" r:id="rId15"/>
+    <sheet name="HPE-Dividend" sheetId="9" r:id="rId6"/>
+    <sheet name="ICICII" sheetId="4" r:id="rId7"/>
+    <sheet name="JNV" sheetId="10" r:id="rId8"/>
+    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId9"/>
+    <sheet name="IncomeProject-24" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId12"/>
+    <sheet name="Budget" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>Gratuity</t>
   </si>
@@ -149,60 +147,9 @@
     <t>ULIP</t>
   </si>
   <si>
-    <t>ICICI-1</t>
-  </si>
-  <si>
-    <t>ICICI-2</t>
-  </si>
-  <si>
     <t>Birla</t>
   </si>
   <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>Surrender</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>04441535</t>
-  </si>
-  <si>
-    <t>premium-charge</t>
-  </si>
-  <si>
-    <t>Mortality-charge</t>
-  </si>
-  <si>
-    <t>Fund mngmnt Charge</t>
-  </si>
-  <si>
-    <t>Free-switch</t>
-  </si>
-  <si>
-    <t>06736159</t>
-  </si>
-  <si>
-    <t>Policy-Admin Charge</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>Partial Widthdrawl</t>
-  </si>
-  <si>
-    <t>02422350</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
     <t>Partial</t>
   </si>
   <si>
@@ -215,147 +162,9 @@
     <t>top-up</t>
   </si>
   <si>
-    <t>Signature-Online</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Signatur-online</t>
-  </si>
-  <si>
-    <t>Wealth-booster</t>
-  </si>
-  <si>
-    <t>Min premium</t>
-  </si>
-  <si>
-    <t>sum-assured</t>
-  </si>
-  <si>
-    <t>Death-benefit</t>
-  </si>
-  <si>
-    <t>Fund-value</t>
-  </si>
-  <si>
-    <t>Maturity-benefit</t>
-  </si>
-  <si>
-    <t>Partial-widhdaw</t>
-  </si>
-  <si>
-    <t>Systematic Partial widthdraw</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Unlimited</t>
-  </si>
-  <si>
-    <t>min topup</t>
-  </si>
-  <si>
-    <t>Premium allocation charge</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>Fund Management charge</t>
-  </si>
-  <si>
-    <t>Policy administration charge</t>
-  </si>
-  <si>
-    <t>Mortality charge</t>
-  </si>
-  <si>
-    <t>(1.06 of fund value)318</t>
-  </si>
-  <si>
-    <t>Signature SP</t>
-  </si>
-  <si>
-    <t>every 5th year, startin 10 yr onwards. Of Fund Value</t>
-  </si>
-  <si>
-    <t>After completing 5 years</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>age 18, min amount 2000</t>
-  </si>
-  <si>
-    <t>of annual premium</t>
-  </si>
-  <si>
-    <t>on fund value</t>
-  </si>
-  <si>
-    <t>current year total charge
-Assuming FV 3,00,000
-Annual Prem - 20,000</t>
-  </si>
-  <si>
-    <t>13000
-6720</t>
-  </si>
-  <si>
-    <t>1200(0.4%)</t>
-  </si>
-  <si>
-    <t>1700(0.4%)</t>
-  </si>
-  <si>
-    <t>(7000)1.5%</t>
-  </si>
-  <si>
-    <t>Inter GST</t>
-  </si>
-  <si>
-    <t>Mortality Charges</t>
-  </si>
-  <si>
-    <t>Policy Administration Charge</t>
-  </si>
-  <si>
-    <t>MAXIMISER</t>
-  </si>
-  <si>
-    <t>PRESERVER</t>
-  </si>
-  <si>
-    <t>PROTECTOR</t>
-  </si>
-  <si>
-    <t>BALANCED</t>
-  </si>
-  <si>
-    <t>GROWTH</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>SA+FV</t>
-  </si>
-  <si>
-    <t>FV</t>
-  </si>
-  <si>
-    <t>12% of premium</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
@@ -629,9 +438,6 @@
     <t>Other-invest</t>
   </si>
   <si>
-    <t>Loan</t>
-  </si>
-  <si>
     <t>Rest</t>
   </si>
   <si>
@@ -672,6 +478,54 @@
   </si>
   <si>
     <t>Leave1</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Chess</t>
+  </si>
+  <si>
+    <t>HomeLn-2</t>
+  </si>
+  <si>
+    <t>in %</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Man-a</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Achieved</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time(yrs)</t>
+  </si>
+  <si>
+    <t>1 CR</t>
+  </si>
+  <si>
+    <t>2 CR</t>
+  </si>
+  <si>
+    <t>Time-Dec24</t>
+  </si>
+  <si>
+    <t>Expn</t>
+  </si>
+  <si>
+    <t>Save</t>
   </si>
 </sst>
 </file>
@@ -844,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,14 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1202,7 +1049,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,10 +1067,10 @@
       <c r="E1">
         <v>2021</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="13">
         <v>44896</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="14">
         <v>44918</v>
       </c>
       <c r="N1">
@@ -1554,7 +1401,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1583,7 +1430,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1592,96 +1439,303 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D84A49-9C36-4472-90D9-A62418DCC544}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>6.75</v>
-      </c>
-      <c r="C2">
-        <v>249.97</v>
-      </c>
-      <c r="D2">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="E2">
-        <v>2.56</v>
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>19.47</v>
-      </c>
-      <c r="C3">
-        <v>696.64</v>
-      </c>
-      <c r="D3">
-        <v>2.82</v>
+        <v>1.4</v>
       </c>
       <c r="E3">
-        <v>7.06</v>
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>725.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>18.09</v>
-      </c>
-      <c r="C4">
-        <v>692.02</v>
-      </c>
-      <c r="D4">
-        <v>2.82</v>
+        <v>1.4</v>
       </c>
       <c r="E4">
-        <v>7.06</v>
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>1.8</v>
       </c>
       <c r="H4">
-        <v>720</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1.8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>1.8</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>1.8</v>
+      </c>
+      <c r="H6">
+        <v>3.3</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>1.8</v>
+      </c>
+      <c r="H7">
+        <v>3.3</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>1.8</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="H9">
+        <v>3.3</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
+        <v>3.3</v>
+      </c>
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>1.8</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
+      <c r="H12">
+        <v>3.3</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>1.8</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f>SUM(K2:K14)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1690,682 +1744,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2013</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2003</v>
-      </c>
-      <c r="G1">
-        <v>2004</v>
-      </c>
-      <c r="H1">
-        <v>2005</v>
-      </c>
-      <c r="I1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="H7">
-        <v>52</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="I10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA858BC-6FC1-4FE0-B743-F4C343DF67D5}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="19">
-        <v>44569</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3">
-        <v>2500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="19">
-        <v>44658</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4">
-        <v>2500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5">
-        <v>3500</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6">
-        <v>3500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1">
-        <v>1.2</v>
-      </c>
-      <c r="E1">
-        <v>1.5</v>
-      </c>
-      <c r="F1">
-        <v>1.8</v>
-      </c>
-      <c r="H1">
-        <v>4.5</v>
-      </c>
-      <c r="I1">
-        <v>1.5</v>
-      </c>
-      <c r="K1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2">
-        <v>1.4</v>
-      </c>
-      <c r="E2">
-        <v>1.5</v>
-      </c>
-      <c r="F2">
-        <v>1.8</v>
-      </c>
-      <c r="H2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3">
-        <v>1.4</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="F3">
-        <v>1.8</v>
-      </c>
-      <c r="H3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4">
-        <v>1.8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <v>1.8</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5">
-        <v>1.5</v>
-      </c>
-      <c r="F5">
-        <v>1.8</v>
-      </c>
-      <c r="H5">
-        <v>3.3</v>
-      </c>
-      <c r="I5">
-        <v>1.5</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6">
-        <v>1.8</v>
-      </c>
-      <c r="H6">
-        <v>3.3</v>
-      </c>
-      <c r="I6">
-        <v>1.5</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7">
-        <v>1.8</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-      <c r="F7">
-        <v>1.8</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>1.5</v>
-      </c>
-      <c r="K7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8">
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <v>1.8</v>
-      </c>
-      <c r="H8">
-        <v>3.3</v>
-      </c>
-      <c r="I8">
-        <v>1.5</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>1.8</v>
-      </c>
-      <c r="H9">
-        <v>3.3</v>
-      </c>
-      <c r="I9">
-        <v>1.5</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10">
-        <v>1.8</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1.5</v>
-      </c>
-      <c r="F10">
-        <v>1.8</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>1.5</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>1.5</v>
-      </c>
-      <c r="F11">
-        <v>1.8</v>
-      </c>
-      <c r="H11">
-        <v>3.3</v>
-      </c>
-      <c r="I11">
-        <v>1.5</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1.5</v>
-      </c>
-      <c r="F12">
-        <v>1.8</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>1.5</v>
-      </c>
-      <c r="K12">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K14">
-        <f>SUM(K1:K13)</f>
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9794E9-9C2C-4093-9E58-3B0BB5523EE8}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -2381,15 +1759,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -2397,7 +1775,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -2413,10 +1791,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -2424,10 +1802,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -2435,10 +1813,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -2446,10 +1824,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -2457,7 +1835,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -2465,7 +1843,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -2481,7 +1859,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -2489,7 +1867,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2503,7 +1881,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -2516,29 +1894,345 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
-  <dimension ref="A1:S19"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29D149-1782-4426-BDC0-D29C8ECEA763}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>SUM(B3:B11)</f>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C3:C11)</f>
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H3:H11)</f>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I3:I11)</f>
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f>SUM(M3:M11)</f>
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -2546,19 +2240,19 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>103</v>
@@ -2567,7 +2261,7 @@
         <v>230</v>
       </c>
       <c r="Q2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="R2">
         <v>45</v>
@@ -2575,19 +2269,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="L3">
         <v>160</v>
@@ -2596,7 +2290,7 @@
         <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="R3">
         <v>40</v>
@@ -2604,19 +2298,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <v>15</v>
@@ -2624,101 +2318,98 @@
       <c r="O4">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
-        <v>181</v>
-      </c>
       <c r="R4">
         <v>85</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="12">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="R5">
         <v>55</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="12">
         <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="12">
         <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="R7">
         <v>80</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="12">
         <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="R8">
         <v>10</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="12">
         <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>182</v>
-      </c>
-      <c r="S9" s="15">
+        <v>119</v>
+      </c>
+      <c r="S9" s="12">
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2726,19 +2417,27 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>1.5</v>
       </c>
     </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <f>SUM(B1:B18)</f>
-        <v>46.5</v>
+        <f>SUM(B2:B18)</f>
+        <v>66.5</v>
       </c>
       <c r="H19">
         <f>SUM(H2:H18)</f>
@@ -2752,7 +2451,7 @@
         <f>SUM(O2:O18)</f>
         <v>525</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="12">
         <f>SUM(S4:S18)</f>
         <v>1</v>
       </c>
@@ -2779,50 +2478,50 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>340</v>
@@ -2856,7 +2555,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="13">
         <v>44896</v>
       </c>
       <c r="B4">
@@ -2876,7 +2575,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>45008</v>
       </c>
       <c r="B5">
@@ -2900,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87EEF09-CE4A-466C-B8B6-8F60BE2038F1}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2911,7 +2610,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>5.2</v>
@@ -2919,7 +2618,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>3.6</v>
@@ -2927,7 +2626,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -2935,7 +2634,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>2.5</v>
@@ -2943,7 +2642,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>6.5</v>
@@ -2951,7 +2650,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2959,7 +2658,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>2.2000000000000002</v>
@@ -2967,7 +2666,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2975,7 +2674,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2983,7 +2682,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -2991,7 +2690,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2999,7 +2698,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>27</v>
@@ -3007,7 +2706,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -3015,7 +2714,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -3218,21 +2917,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>975</v>
@@ -3243,7 +2942,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>800</v>
@@ -3254,7 +2953,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>1300</v>
@@ -3265,7 +2964,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>1500</v>
@@ -3276,7 +2975,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>900</v>
@@ -3287,7 +2986,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1500</v>
@@ -3298,7 +2997,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -3309,22 +3008,22 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -3339,197 +3038,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21665A-23F8-44A6-BBBB-89F49F8AA360}">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="12">
-        <v>39120</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>800</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="12">
-        <v>39407</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>25000</v>
-      </c>
-      <c r="D4" s="12">
-        <v>39829</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>760</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1.35E-2</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1.35E-2</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE8F9A-D870-4289-9775-9C157F06B43E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -3547,28 +3055,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3838,12 +3346,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D360A2-36FA-41FE-B861-16B8902DB39F}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3853,28 +3361,28 @@
         <v>6736</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H1">
         <v>4441535</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4098,6 +3606,268 @@
       </c>
       <c r="E16">
         <v>14.8</v>
+      </c>
+      <c r="H16">
+        <v>292496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17">
+        <v>516866</v>
+      </c>
+      <c r="D17">
+        <v>66849</v>
+      </c>
+      <c r="E17">
+        <v>15.5</v>
+      </c>
+      <c r="H17">
+        <v>343253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2013</v>
+      </c>
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2003</v>
+      </c>
+      <c r="G1">
+        <v>2004</v>
+      </c>
+      <c r="H1">
+        <v>2005</v>
+      </c>
+      <c r="I1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4106,290 +3876,138 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004B924-DDAE-4B12-A905-ADFA4DBF16C6}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA858BC-6FC1-4FE0-B743-F4C343DF67D5}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="14">
+        <v>44569</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1">
-        <v>44</v>
-      </c>
-      <c r="G1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.5</v>
-      </c>
-      <c r="E2">
-        <v>1.5</v>
-      </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="16">
-        <v>200000</v>
-      </c>
-      <c r="E3" s="16">
-        <v>200000</v>
-      </c>
-      <c r="F3">
-        <v>20000</v>
-      </c>
-      <c r="G3">
-        <v>20000</v>
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>2500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>300000</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2000000</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2000000</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="14">
+        <v>44658</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>2500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>37500</v>
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>3500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>3500</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>2000</v>
-      </c>
-      <c r="D11">
-        <v>2000</v>
-      </c>
-      <c r="E11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1.35E-2</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1.35E-2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.35E-2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14">
-        <v>1200</v>
-      </c>
-      <c r="D14">
-        <v>660</v>
-      </c>
-      <c r="E14">
-        <v>720</v>
-      </c>
-      <c r="G14">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2000</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17">
-        <v>5500</v>
-      </c>
-      <c r="D17">
-        <v>6000</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17">
-        <v>8750</v>
-      </c>
-      <c r="G17">
-        <v>9500</v>
       </c>
     </row>
   </sheetData>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{46BFD54B-2E85-4D04-BAE6-7F00043CD279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B9CB59-D46A-4C4F-81A6-4F7EA60CFEFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47160F7-6FC6-4730-BEFF-4D3B5428D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
@@ -16,16 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Ind-Vested" sheetId="12" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="17" r:id="rId3"/>
-    <sheet name="Holiday-21" sheetId="2" r:id="rId4"/>
-    <sheet name="Stock" sheetId="11" r:id="rId5"/>
-    <sheet name="HPE-Dividend" sheetId="9" r:id="rId6"/>
-    <sheet name="ICICII" sheetId="4" r:id="rId7"/>
-    <sheet name="JNV" sheetId="10" r:id="rId8"/>
-    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId9"/>
-    <sheet name="IncomeProject-24" sheetId="14" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId12"/>
-    <sheet name="Budget" sheetId="16" r:id="rId13"/>
+    <sheet name="Stock" sheetId="11" r:id="rId4"/>
+    <sheet name="HPE-Dividend" sheetId="9" r:id="rId5"/>
+    <sheet name="ICICII" sheetId="4" r:id="rId6"/>
+    <sheet name="JNV" sheetId="10" r:id="rId7"/>
+    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId8"/>
+    <sheet name="IncomeProject-24" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId11"/>
+    <sheet name="Budget" sheetId="16" r:id="rId12"/>
+    <sheet name="Investing-div" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="145">
   <si>
     <t>Gratuity</t>
   </si>
@@ -108,42 +108,6 @@
     <t>Liab</t>
   </si>
   <si>
-    <t>New Year’s Day</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Pongal /Makara Sankranti</t>
-  </si>
-  <si>
-    <t>Republic Day</t>
-  </si>
-  <si>
-    <t>Good Friday</t>
-  </si>
-  <si>
-    <t>Ugadi/Gudi Padwa</t>
-  </si>
-  <si>
-    <t>Id-ul-Fitr/Ramzan</t>
-  </si>
-  <si>
-    <t>Ganesh Chaturthi</t>
-  </si>
-  <si>
-    <t>Vijaya Dashami</t>
-  </si>
-  <si>
-    <t>Kannada Rajyotsava</t>
-  </si>
-  <si>
-    <t>Diwali</t>
-  </si>
-  <si>
-    <t>Guru Nanak Jayanti</t>
-  </si>
-  <si>
     <t>ULIP</t>
   </si>
   <si>
@@ -526,28 +490,39 @@
   </si>
   <si>
     <t>Save</t>
+  </si>
+  <si>
+    <t>Nifty</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Shares-Risk</t>
+  </si>
+  <si>
+    <t>Shares-Div</t>
+  </si>
+  <si>
+    <t>Ulip</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Bak</t>
+  </si>
+  <si>
+    <t>Bak-Distrb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF494F69"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -567,7 +542,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,14 +555,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -595,140 +564,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD5D5D5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD5D5D5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD5D5D5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD5D5D5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD5D5D5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD5D5D5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1048,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F222D-A2F0-44C2-99C6-BFCFB386F73F}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,10 +909,10 @@
       <c r="E1">
         <v>2021</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="3">
         <v>44896</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="4">
         <v>44918</v>
       </c>
       <c r="N1">
@@ -1401,7 +1243,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1430,7 +1272,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1439,311 +1281,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>1.2</v>
-      </c>
-      <c r="E2">
-        <v>1.5</v>
-      </c>
-      <c r="F2">
-        <v>1.8</v>
-      </c>
-      <c r="H2">
-        <v>4.5</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>1.4</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="F3">
-        <v>1.8</v>
-      </c>
-      <c r="H3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>1.4</v>
-      </c>
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <v>1.8</v>
-      </c>
-      <c r="H4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5">
-        <v>1.8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1.5</v>
-      </c>
-      <c r="F5">
-        <v>1.8</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>1.5</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6">
-        <v>1.8</v>
-      </c>
-      <c r="H6">
-        <v>3.3</v>
-      </c>
-      <c r="I6">
-        <v>1.5</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-      <c r="F7">
-        <v>1.8</v>
-      </c>
-      <c r="H7">
-        <v>3.3</v>
-      </c>
-      <c r="I7">
-        <v>1.5</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8">
-        <v>1.8</v>
-      </c>
-      <c r="E8">
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <v>1.8</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>1.5</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>1.8</v>
-      </c>
-      <c r="H9">
-        <v>3.3</v>
-      </c>
-      <c r="I9">
-        <v>1.5</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <v>1.5</v>
-      </c>
-      <c r="F10">
-        <v>1.8</v>
-      </c>
-      <c r="H10">
-        <v>3.3</v>
-      </c>
-      <c r="I10">
-        <v>1.5</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11">
-        <v>1.8</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1.5</v>
-      </c>
-      <c r="F11">
-        <v>1.8</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>1.5</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12">
-        <v>1.5</v>
-      </c>
-      <c r="F12">
-        <v>1.8</v>
-      </c>
-      <c r="H12">
-        <v>3.3</v>
-      </c>
-      <c r="I12">
-        <v>1.5</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1.5</v>
-      </c>
-      <c r="F13">
-        <v>1.8</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>1.5</v>
-      </c>
-      <c r="K13">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K15">
-        <f>SUM(K2:K14)</f>
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9794E9-9C2C-4093-9E58-3B0BB5523EE8}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -1759,15 +1296,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -1775,7 +1312,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1783,7 +1320,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1791,10 +1328,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -1802,10 +1339,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1813,10 +1350,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1824,10 +1361,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -1835,7 +1372,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -1843,7 +1380,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -1859,7 +1396,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -1867,7 +1404,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -1881,7 +1418,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -1894,12 +1431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29D149-1782-4426-BDC0-D29C8ECEA763}">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,54 +1446,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -2043,7 +1580,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -2060,7 +1597,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2142,7 +1679,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2209,11 +1746,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2226,13 +1763,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -2240,19 +1777,19 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L2">
         <v>103</v>
@@ -2261,7 +1798,7 @@
         <v>230</v>
       </c>
       <c r="Q2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="R2">
         <v>45</v>
@@ -2269,19 +1806,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>160</v>
@@ -2290,7 +1827,7 @@
         <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="R3">
         <v>40</v>
@@ -2298,19 +1835,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L4">
         <v>15</v>
@@ -2321,95 +1858,95 @@
       <c r="R4">
         <v>85</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="2">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="R5">
         <v>55</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="R6">
         <v>95</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="2">
         <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="R7">
         <v>80</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="2">
         <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="R8">
         <v>10</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>119</v>
-      </c>
-      <c r="S9" s="12">
+        <v>107</v>
+      </c>
+      <c r="S9" s="2">
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2417,7 +1954,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>1.5</v>
@@ -2425,7 +1962,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -2433,7 +1970,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <f>SUM(B2:B18)</f>
@@ -2451,9 +1988,139 @@
         <f>SUM(O2:O18)</f>
         <v>525</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="2">
         <f>SUM(S4:S18)</f>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9A2AF-A578-4FD8-905F-4A05FF410F9D}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>SUM(G2:G9)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2478,50 +2145,50 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>340</v>
@@ -2555,7 +2222,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="3">
         <v>44896</v>
       </c>
       <c r="B4">
@@ -2575,7 +2242,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>45008</v>
       </c>
       <c r="B5">
@@ -2610,7 +2277,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>5.2</v>
@@ -2618,7 +2285,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>3.6</v>
@@ -2626,7 +2293,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -2634,7 +2301,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>2.5</v>
@@ -2642,7 +2309,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>6.5</v>
@@ -2650,7 +2317,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2658,7 +2325,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>2.2000000000000002</v>
@@ -2666,7 +2333,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2674,7 +2341,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2682,7 +2349,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -2690,7 +2357,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2698,7 +2365,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>27</v>
@@ -2706,7 +2373,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -2714,7 +2381,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -2741,171 +2408,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A2472-D9A4-4F2B-9C8D-446796283D73}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>44210</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>44222</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>44288</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>44299</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>44330</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>44449</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>44484</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>44504</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>44519</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2917,21 +2419,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>975</v>
@@ -2942,7 +2444,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>800</v>
@@ -2953,7 +2455,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1300</v>
@@ -2964,7 +2466,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1500</v>
@@ -2975,7 +2477,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>900</v>
@@ -2986,7 +2488,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>1500</v>
@@ -2997,7 +2499,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -3008,22 +2510,22 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -3037,7 +2539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE8F9A-D870-4289-9775-9C157F06B43E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -3055,28 +2557,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3346,7 +2848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D360A2-36FA-41FE-B861-16B8902DB39F}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -3361,28 +2863,28 @@
         <v>6736</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H1">
         <v>4441535</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3633,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -3875,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA858BC-6FC1-4FE0-B743-F4C343DF67D5}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3895,119 +3397,424 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="14">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
         <v>44569</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2500</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="14">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4">
         <v>44658</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>2500</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>3500</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>3500</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>1.2</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="H2">
+        <v>4.5</v>
+      </c>
+      <c r="I2">
+        <v>1.5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>1.4</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
+      </c>
+      <c r="H3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>1.4</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>1.8</v>
+      </c>
+      <c r="H4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>1.8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>1.8</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>1.8</v>
+      </c>
+      <c r="H6">
+        <v>3.3</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>58</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>1.8</v>
+      </c>
+      <c r="H7">
+        <v>3.3</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>1.8</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="H9">
+        <v>3.3</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
+        <v>3.3</v>
+      </c>
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>1.8</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
+      <c r="H12">
+        <v>3.3</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>1.8</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f>SUM(K2:K14)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47160F7-6FC6-4730-BEFF-4D3B5428D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED1C73-562A-4F53-83AB-738741BCFBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ind-Vested" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="17" r:id="rId3"/>
-    <sheet name="Stock" sheetId="11" r:id="rId4"/>
+    <sheet name="TotalIncomeProjection" sheetId="1" r:id="rId1"/>
+    <sheet name="Projection-25" sheetId="23" r:id="rId2"/>
+    <sheet name="2023-Projection" sheetId="22" r:id="rId3"/>
+    <sheet name="Income-Src" sheetId="17" r:id="rId4"/>
     <sheet name="HPE-Dividend" sheetId="9" r:id="rId5"/>
     <sheet name="ICICII" sheetId="4" r:id="rId6"/>
-    <sheet name="JNV" sheetId="10" r:id="rId7"/>
-    <sheet name="upcomingTrntmnt" sheetId="13" r:id="rId8"/>
-    <sheet name="IncomeProject-24" sheetId="14" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId11"/>
-    <sheet name="Budget" sheetId="16" r:id="rId12"/>
-    <sheet name="Investing-div" sheetId="19" r:id="rId13"/>
+    <sheet name="IncomeProject-24" sheetId="14" r:id="rId7"/>
+    <sheet name="Income-source" sheetId="15" r:id="rId8"/>
+    <sheet name="Incm-src" sheetId="24" r:id="rId9"/>
+    <sheet name="Target-24" sheetId="18" r:id="rId10"/>
+    <sheet name="Budget" sheetId="16" r:id="rId11"/>
+    <sheet name="Investing-div" sheetId="19" r:id="rId12"/>
+    <sheet name="Airbnb" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,42 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Kumar, Manish</author>
-  </authors>
-  <commentList>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{B1F1341F-F7EC-4E89-B68A-D087868BC30E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Kumar, Manish:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
   <si>
     <t>Gratuity</t>
   </si>
@@ -129,24 +95,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>quantiti</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>yes Bank</t>
-  </si>
-  <si>
-    <t>Yes bank</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -174,66 +122,6 @@
     <t>Net</t>
   </si>
   <si>
-    <t xml:space="preserve">5th HSM Memorial </t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Fide Rating</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>600-750</t>
-  </si>
-  <si>
-    <t>Virginia Mall, Whitefield</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Prize</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>120Feb</t>
-  </si>
-  <si>
-    <t>Promethean Open FIDE Rating</t>
-  </si>
-  <si>
-    <t>Unrated-15K</t>
-  </si>
-  <si>
-    <t>4th ICA Open FIDE Rating</t>
-  </si>
-  <si>
-    <t>under-1100</t>
-  </si>
-  <si>
-    <t>9th ICA Below 1600 FIDE Rating</t>
-  </si>
-  <si>
-    <t>Unraed</t>
-  </si>
-  <si>
-    <t>U-1600</t>
-  </si>
-  <si>
-    <t>13-15 Apr</t>
-  </si>
-  <si>
-    <t>5th Bangalore Open FIDE Rating</t>
-  </si>
-  <si>
-    <t>8-12 Apr</t>
-  </si>
-  <si>
     <t>Studio</t>
   </si>
   <si>
@@ -273,33 +161,6 @@
     <t>jan</t>
   </si>
   <si>
-    <t>Ind-Man</t>
-  </si>
-  <si>
-    <t>Ind-Mana</t>
-  </si>
-  <si>
-    <t>Vested-Man</t>
-  </si>
-  <si>
-    <t>Vested-Mana</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Dolr</t>
-  </si>
-  <si>
-    <t>Shr</t>
-  </si>
-  <si>
-    <t>Dlr</t>
-  </si>
-  <si>
-    <t>dollVsInr</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -514,32 +375,118 @@
   </si>
   <si>
     <t>Bak-Distrb</t>
+  </si>
+  <si>
+    <t>Achieved-1</t>
+  </si>
+  <si>
+    <t>Achieved-2(Dec-23)</t>
+  </si>
+  <si>
+    <t>Achieved(Dec-23)</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Var-Exp</t>
+  </si>
+  <si>
+    <t>Fixed-Exp</t>
+  </si>
+  <si>
+    <t>Earn</t>
+  </si>
+  <si>
+    <t>Days-booked</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Invest</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Cash + Share</t>
+  </si>
+  <si>
+    <t>Elect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF </t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>2023 Dec</t>
+  </si>
+  <si>
+    <t>2023 March</t>
+  </si>
+  <si>
+    <t>MS-5</t>
+  </si>
+  <si>
+    <t>Sal-M</t>
+  </si>
+  <si>
+    <t>Sal-A</t>
+  </si>
+  <si>
+    <t>Stock-Opt</t>
+  </si>
+  <si>
+    <t>Sensex</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>SavingAccnt</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>AirBnb</t>
+  </si>
+  <si>
+    <t>NPS-M</t>
+  </si>
+  <si>
+    <t>NPS-A</t>
+  </si>
+  <si>
+    <t>EPF-M</t>
+  </si>
+  <si>
+    <t>EPF-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,12 +515,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313F222D-A2F0-44C2-99C6-BFCFB386F73F}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1191,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1272,7 +1220,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1281,149 +1229,361 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9794E9-9C2C-4093-9E58-3B0BB5523EE8}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29D149-1782-4426-BDC0-D29C8ECEA763}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
       </c>
       <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>SUM(B3:B11)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="C12">
+        <f>SUM(C3:C11)</f>
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
+        <v>72</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E3:E11)</f>
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I3:I11)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9">
+      <c r="J12">
+        <f>SUM(J3:J11)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <f>SUM(C2:C14)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K12">
+        <f>SUM(K3:K11)</f>
+        <v>62</v>
+      </c>
+      <c r="M12">
         <v>2</v>
+      </c>
+      <c r="O12">
+        <f>SUM(O3:O11)</f>
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1432,321 +1592,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29D149-1782-4426-BDC0-D29C8ECEA763}">
-  <dimension ref="A1:P12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-      <c r="N3">
-        <v>14</v>
-      </c>
-      <c r="O3">
-        <v>26</v>
-      </c>
-      <c r="P3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>20</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>17</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>18</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f>SUM(B3:B11)</f>
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <f>SUM(C3:C11)</f>
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <f>SUM(D3:D11)</f>
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <f>SUM(H3:H11)</f>
-        <v>100</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I3:I11)</f>
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <f>SUM(M3:M11)</f>
-        <v>100</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -1763,13 +1608,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -1777,19 +1622,19 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="L2">
         <v>103</v>
@@ -1798,7 +1643,7 @@
         <v>230</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="R2">
         <v>45</v>
@@ -1806,19 +1651,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L3">
         <v>160</v>
@@ -1827,7 +1672,7 @@
         <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="R3">
         <v>40</v>
@@ -1835,19 +1680,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="L4">
         <v>15</v>
@@ -1864,13 +1709,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="R5">
         <v>55</v>
@@ -1881,13 +1726,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="R6">
         <v>95</v>
@@ -1898,13 +1743,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="R7">
         <v>80</v>
@@ -1915,13 +1760,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="R8">
         <v>10</v>
@@ -1932,13 +1777,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="S9" s="2">
         <v>0.35</v>
@@ -1946,7 +1791,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1954,7 +1799,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>1.5</v>
@@ -1962,7 +1807,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1991,6 +1836,139 @@
       <c r="S19" s="2">
         <f>SUM(S4:S18)</f>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9A2AF-A578-4FD8-905F-4A05FF410F9D}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>SUM(G2:G9)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1999,128 +1977,96 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9A2AF-A578-4FD8-905F-4A05FF410F9D}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83635AB9-D9A9-4940-8194-FBAA2398B91B}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>100</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="4">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="B2" s="5">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5">
+        <v>60000</v>
+      </c>
+      <c r="C3">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10">
-        <f>SUM(G2:G9)</f>
-        <v>29</v>
+        <v>114</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41000</v>
+      </c>
+      <c r="C9">
+        <v>43000</v>
       </c>
     </row>
   </sheetData>
@@ -2129,145 +2075,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C8AD0-E588-4715-BD9A-D31EABC4DD8E}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEBAAD-0265-409C-AD88-BDEAB3842B2B}">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44734</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44917</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45283</v>
+      </c>
+      <c r="P1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.7</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>4.7</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>23.5</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>35.5</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>41.7</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>34.5</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>56.2</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>48</v>
+      </c>
+      <c r="I8">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3">
-        <v>340</v>
-      </c>
-      <c r="C3">
-        <v>25000</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1840</v>
-      </c>
-      <c r="F3">
-        <v>140000</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1007</v>
-      </c>
-      <c r="I3">
-        <v>75000</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>44896</v>
-      </c>
-      <c r="B4">
-        <v>369</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1143</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>45008</v>
-      </c>
-      <c r="B5">
-        <v>385</v>
-      </c>
-      <c r="E5">
-        <v>2108</v>
-      </c>
-      <c r="H5">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3"/>
+      <c r="J8">
+        <v>58.7</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L2:L7)</f>
+        <v>76</v>
+      </c>
+      <c r="M8">
+        <f>SUM(M2:M7)</f>
+        <v>76</v>
+      </c>
+      <c r="P8">
+        <f>SUM(P2:P7)</f>
+        <v>132</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(Q2:Q7)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>47</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>60</v>
+      </c>
+      <c r="M13">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE5A8B-5B1C-4730-AFE2-8C8CFF8B382E}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4.7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G3:G6)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>-38</v>
+      </c>
+      <c r="D8">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D2:D8)</f>
+        <v>40.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87EEF09-CE4A-466C-B8B6-8F60BE2038F1}">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2535,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>5.2</v>
@@ -2285,7 +2543,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>3.6</v>
@@ -2301,7 +2559,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>2.5</v>
@@ -2309,7 +2567,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>6.5</v>
@@ -2317,7 +2575,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2325,7 +2583,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>2.2000000000000002</v>
@@ -2333,7 +2591,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2341,7 +2599,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2349,7 +2607,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -2357,7 +2615,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2365,7 +2623,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>27</v>
@@ -2373,7 +2631,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -2381,7 +2639,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -2400,138 +2658,6 @@
       <c r="E20">
         <f>SUM(E1:E19)</f>
         <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C0DB57-45C7-4504-A33B-E6498916F6CF}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>975</v>
-      </c>
-      <c r="C6">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>800</v>
-      </c>
-      <c r="C7">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>1300</v>
-      </c>
-      <c r="C8">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>1500</v>
-      </c>
-      <c r="C9">
-        <v>15.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="C10">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>1500</v>
-      </c>
-      <c r="C11">
-        <v>13.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f>SUM(B6:B19)</f>
-        <v>7975</v>
       </c>
     </row>
   </sheetData>
@@ -2557,28 +2683,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3136,393 +3262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD66717-E9D5-4A5C-8E0C-BE94D20A6D16}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2013</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2003</v>
-      </c>
-      <c r="G1">
-        <v>2004</v>
-      </c>
-      <c r="H1">
-        <v>2005</v>
-      </c>
-      <c r="I1">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="H7">
-        <v>52</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="I10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA858BC-6FC1-4FE0-B743-F4C343DF67D5}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44569</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>2500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44658</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>2500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>3500</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>3500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D897D81-E3C1-429C-83BA-A9374536B52E}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3532,15 +3276,15 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -3563,7 +3307,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1.4</v>
@@ -3586,7 +3330,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -3609,7 +3353,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1.8</v>
@@ -3638,7 +3382,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1.5</v>
@@ -3658,7 +3402,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>1.5</v>
@@ -3678,7 +3422,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1.8</v>
@@ -3701,7 +3445,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>1.5</v>
@@ -3721,7 +3465,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>1.5</v>
@@ -3741,7 +3485,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>1.8</v>
@@ -3770,7 +3514,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1.5</v>
@@ -3790,7 +3534,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3815,6 +3559,293 @@
       <c r="K15">
         <f>SUM(K2:K14)</f>
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9794E9-9C2C-4093-9E58-3B0BB5523EE8}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB10BF-31A3-41BF-8810-C15C5025554C}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDoc_New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED1C73-562A-4F53-83AB-738741BCFBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B599964-536E-4431-82D4-6F3EA3280EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalIncomeProjection" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Outing</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>EPF-A</t>
+  </si>
+  <si>
+    <t>Grocery</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29D149-1782-4426-BDC0-D29C8ECEA763}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -1247,60 +1247,60 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
         <v>111</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,13 +1608,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -1622,9 +1622,9 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>103</v>
@@ -1643,7 +1643,7 @@
         <v>230</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2">
         <v>45</v>
@@ -1663,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3">
         <v>160</v>
@@ -1672,7 +1672,7 @@
         <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R3">
         <v>40</v>
@@ -1686,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1711,11 +1711,11 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R5">
         <v>55</v>
@@ -1728,11 +1728,11 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R6">
         <v>95</v>
@@ -1748,8 +1748,11 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R7">
         <v>80</v>
@@ -1763,10 +1766,13 @@
         <v>58</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8">
         <v>10</v>
@@ -1777,13 +1783,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S9" s="2">
         <v>0.35</v>
@@ -1791,7 +1800,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1799,7 +1808,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>1.5</v>
@@ -1807,9 +1816,9 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12">
+        <v>86</v>
+      </c>
+      <c r="C12">
         <v>20</v>
       </c>
     </row>
@@ -1819,7 +1828,11 @@
       </c>
       <c r="B19">
         <f>SUM(B2:B18)</f>
-        <v>66.5</v>
+        <v>30.5</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>37</v>
       </c>
       <c r="H19">
         <f>SUM(H2:H18)</f>
@@ -1861,7 +1874,7 @@
         <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4">
         <v>45161</v>
@@ -1869,7 +1882,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -1883,7 +1896,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1897,7 +1910,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1911,7 +1924,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1925,7 +1938,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1939,7 +1952,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1953,7 +1966,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -1988,10 +2001,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
@@ -1999,7 +2012,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5">
         <v>28</v>
@@ -2010,7 +2023,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5">
         <v>60000</v>
@@ -2021,7 +2034,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5">
         <v>10000</v>
@@ -2032,7 +2045,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5">
         <v>1000</v>
@@ -2043,7 +2056,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5">
         <v>8000</v>
@@ -2060,7 +2073,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="5">
         <v>41000</v>
@@ -2101,7 +2114,7 @@
         <v>45283</v>
       </c>
       <c r="P1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
@@ -2400,20 +2413,20 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -2439,7 +2452,7 @@
         <v>3.5</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2456,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2464,7 +2477,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -2473,7 +2486,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2481,7 +2494,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -2496,7 +2509,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>-38</v>
@@ -2535,7 +2548,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>5.2</v>
@@ -2543,7 +2556,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>3.6</v>
@@ -2559,7 +2572,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>2.5</v>
@@ -2567,7 +2580,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>6.5</v>
@@ -2575,7 +2588,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2583,7 +2596,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>2.2000000000000002</v>
@@ -2591,7 +2604,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2599,7 +2612,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2607,7 +2620,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -2615,7 +2628,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2623,7 +2636,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>27</v>
@@ -2631,7 +2644,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -2639,7 +2652,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -3276,10 +3289,10 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3721,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB10BF-31A3-41BF-8810-C15C5025554C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -3729,7 +3742,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>200</v>
@@ -3737,7 +3750,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>160</v>
@@ -3745,7 +3758,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -3753,7 +3766,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2">
         <v>0.05</v>
@@ -3764,7 +3777,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2">
         <v>0.05</v>
@@ -3778,7 +3791,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3794,7 +3807,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3802,7 +3815,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -3810,7 +3823,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3818,7 +3831,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3826,7 +3839,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -3834,7 +3847,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>15</v>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAKUM\OneDrive - Software AG\Documents\Personal\PersGit\PersonalDoc_New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDoc_New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B599964-536E-4431-82D4-6F3EA3280EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{9B599964-536E-4431-82D4-6F3EA3280EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F88D11A3-5504-4ED3-92C6-5C4D908C92A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalIncomeProjection" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,8 +526,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{79D9B17D-329C-4B7F-8C62-464F6EF7EF87}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -539,10 +567,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -686,7 +718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1595,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58A256-81A6-466A-82D4-EFC52ED62954}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2402,15 +2434,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE5A8B-5B1C-4730-AFE2-8C8CFF8B382E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" t="s">
         <v>128</v>
@@ -2418,13 +2450,19 @@
       <c r="D1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F2" t="s">
+      <c r="F1" s="3">
+        <v>45352</v>
+      </c>
+      <c r="H1" s="3">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2434,14 +2472,20 @@
       <c r="D3">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
         <v>57</v>
       </c>
-      <c r="G3">
+      <c r="V3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2451,14 +2495,20 @@
       <c r="D4">
         <v>3.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>4.5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
         <v>124</v>
       </c>
-      <c r="G4">
+      <c r="V4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2468,14 +2518,20 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
         <v>86</v>
       </c>
-      <c r="G5">
+      <c r="V5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2485,14 +2541,20 @@
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="U6" t="s">
         <v>122</v>
       </c>
-      <c r="G6">
+      <c r="V6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2502,12 +2564,18 @@
       <c r="D7">
         <v>14</v>
       </c>
-      <c r="G7">
-        <f>SUM(G3:G6)</f>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>15.5</v>
+      </c>
+      <c r="V7">
+        <f>SUM(V3:V6)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -2517,8 +2585,14 @@
       <c r="D8">
         <v>-37</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>-35</v>
+      </c>
+      <c r="H8">
+        <v>-34.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>SUM(B2:B8)</f>
         <v>35.700000000000003</v>
@@ -2526,6 +2600,20 @@
       <c r="D9">
         <f>SUM(D2:D8)</f>
         <v>40.5</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F2:F8)</f>
+        <v>52.5</v>
+      </c>
+      <c r="H9">
+        <f>SUM(H2:H8)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>-F8</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3672,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3690,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3707,22 +3795,28 @@
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/makum_softwareag_com/Documents/Documents/Personal/PersGit/PersonalDoc_New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{9B599964-536E-4431-82D4-6F3EA3280EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F88D11A3-5504-4ED3-92C6-5C4D908C92A3}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{9B599964-536E-4431-82D4-6F3EA3280EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E062F1-86D2-4A11-9947-9AB1ADDFD6C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{B98719BE-EB54-4B9E-A858-358F680DEAF1}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalIncomeProjection" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
   <si>
     <t>Gratuity</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>Grocery</t>
+  </si>
+  <si>
+    <t>IND</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE5A8B-5B1C-4730-AFE2-8C8CFF8B382E}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -3826,132 +3829,183 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB10BF-31A3-41BF-8810-C15C5025554C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>133</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>134</v>
       </c>
       <c r="B6" s="2">
         <v>0.05</v>
       </c>
       <c r="C6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>136</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>138</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>141</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22">
         <v>5</v>
       </c>
     </row>
